--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_24</t>
+          <t>model_10_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999586390074459</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991659326032184</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999967458162905</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998161742706769</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999014465554273</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G2" t="n">
-        <v>3.860867101154314e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007785653035682358</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I2" t="n">
-        <v>4.424957932595448e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001962789193624324</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001202642493441935</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003744638460281403</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006213587611963248</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00019853276426</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006478112900504075</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P2" t="n">
-        <v>78.32406733823198</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.6714662594098</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_23</t>
+          <t>model_10_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999594649883855</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991658726787092</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999681801517158</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998199390452576</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999034958799781</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G3" t="n">
-        <v>3.783765406078423e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007786212404672597</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I3" t="n">
-        <v>4.326783692870586e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000192259101847995</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001177634693883504</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003726498462392343</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006151231914079019</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00019456805575</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006413102591466825</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P3" t="n">
-        <v>78.36441162396386</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7118105451417</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_22</t>
+          <t>model_10_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999603660568541</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991657890609688</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999689689943447</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998240711491199</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999057431567034</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G4" t="n">
-        <v>3.699654619760572e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007786992939574635</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I4" t="n">
-        <v>4.219518837549488e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000187847070497561</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001150211294365279</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003706716559907788</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006082478622864673</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N4" t="n">
-        <v>1.0001902429271</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006341422330306551</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P4" t="n">
-        <v>78.40937199137542</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.7567709125532</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_21</t>
+          <t>model_10_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999613415215306</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991656840429459</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999698288935069</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998285686229715</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999081898699678</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G5" t="n">
-        <v>3.60859927401111e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007787973236720232</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I5" t="n">
-        <v>4.102591891844396e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001830449173348639</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001120354181266539</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003684809939369773</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006007161787409351</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000185560696653</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006262899101238553</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P5" t="n">
-        <v>78.45921156132232</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.8066104825001</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_20</t>
+          <t>model_10_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999623911186858</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991655482578243</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999707725189528</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998334266238419</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999108409599525</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G6" t="n">
-        <v>3.510623986774263e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007789240731228222</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I6" t="n">
-        <v>3.97428005469039e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001778578134152841</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000108800306981094</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003660446214936453</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00592505188734602</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000180522630308</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006177293612738602</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P6" t="n">
-        <v>78.51426333856524</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.8616622597431</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_19</t>
+          <t>model_10_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999635192911673</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991653682216185</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999717994122888</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998386840317025</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999137131810388</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G7" t="n">
-        <v>3.405314037725199e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007790921290182728</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I7" t="n">
-        <v>3.834645657296593e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001722442448613084</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001052953507171372</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003633839393131075</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005835506865496089</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000175107402397</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006083936473924769</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P7" t="n">
-        <v>78.57517660242944</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.9225755236073</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_18</t>
+          <t>model_10_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999647374354159</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991651370936144</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999729324048307</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998443946860306</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999168428081771</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G8" t="n">
-        <v>3.291605619149594e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007793078768647514</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I8" t="n">
-        <v>3.680584154211235e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001661467248651443</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001014762832036283</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003603720410532896</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005737251623512424</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000169260310004</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005981498302873469</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P8" t="n">
-        <v>78.64309997820854</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.9904988993864</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_17</t>
+          <t>model_10_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999660365351516</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991648428591599</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999741516925751</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998505556779774</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999202175349561</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G9" t="n">
-        <v>3.170340361213374e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007795825318126841</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I9" t="n">
-        <v>3.514788444498002e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001595683593339276</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>9.735812188945382e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003571022972497859</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005630577555822648</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000163024631272</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005870282899276378</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P9" t="n">
-        <v>78.71817302675358</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.0655719479314</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_16</t>
+          <t>model_10_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999674130067304</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991644743150733</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999754757398919</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998571522492096</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999238411921144</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G10" t="n">
-        <v>3.041852781350141e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007799265515402525</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I10" t="n">
-        <v>3.334747789125315e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001525249063977713</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>9.293619214451223e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003534603663425244</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005515299430992066</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000156417567694</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005750097146013143</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P10" t="n">
-        <v>78.80091733530526</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.1483162564831</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_15</t>
+          <t>model_10_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999688707648938</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991640106394436</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999769074056026</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998642384007222</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999277389975852</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G11" t="n">
-        <v>2.905777455607784e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007803593723875315</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I11" t="n">
-        <v>3.140073452661172e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001449587067886168</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>8.817972065761427e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003494358567478129</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005390526370965812</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00014942032851</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005620012238505729</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P11" t="n">
-        <v>78.8924489675135</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.2398478886913</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_14</t>
+          <t>model_10_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999703951448772</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991634221414467</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999784429488807</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998717821674084</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999318948826066</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G12" t="n">
-        <v>2.763483275415842e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007809087094355986</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I12" t="n">
-        <v>2.931274103405088e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001369038910752315</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>8.310831605464118e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003449878320093496</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005256884320028207</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00014210330459</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005480680768782527</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P12" t="n">
-        <v>78.99286704930944</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q12" t="n">
-        <v>114.3402659704873</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_13</t>
+          <t>model_10_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999971984844143</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999162679414993</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999800940017727</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998798209447421</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999363316882917</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G13" t="n">
-        <v>2.61509182693594e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007816020119781639</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I13" t="n">
-        <v>2.706768044626457e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001283205304441151</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>7.769410544518982e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003400356336591123</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00511379685452594</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000134472748114</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005331501773641942</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P13" t="n">
-        <v>79.1032525052136</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.4506514263914</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999736240076595</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991617388750373</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999818420821099</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998883518613736</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999410378610953</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G14" t="n">
-        <v>2.462083107755753e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007824799647419079</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I14" t="n">
-        <v>2.469068435576329e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000119211690763361</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>7.195118755956215e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003345878461478422</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004961938237982969</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000126604763234</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005173178221402064</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P14" t="n">
-        <v>79.22383536316241</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q14" t="n">
-        <v>114.5712342843402</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_11</t>
+          <t>model_10_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999752775627673</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991605804736901</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999836794038597</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998972813711119</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999459681370806</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G15" t="n">
-        <v>2.307730996716773e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007835612815516125</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I15" t="n">
-        <v>2.219234001595336e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001096772554679826</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>6.593479774196797e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003285693271100975</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004803884882797227</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000118667698717</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005008396207670515</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P15" t="n">
-        <v>79.35332135133243</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.7007202725102</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_10</t>
+          <t>model_10_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999769202315506</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.99915913031947</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999855944977011</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999066021067707</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999511129030082</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G16" t="n">
-        <v>2.154395076273302e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000784914936861638</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I16" t="n">
-        <v>1.958824312364344e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>9.972509083074306e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>5.965666697719325e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000321975841279036</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004641546160788775</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000110782888557</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004839146390178682</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P16" t="n">
-        <v>79.49083097577174</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.8382298969496</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_9</t>
+          <t>model_10_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999785224529089</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991573068875997</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999875740487051</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999916293452195</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999564557210071</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G17" t="n">
-        <v>2.004834745426672e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007866170304731225</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I17" t="n">
-        <v>1.68964989874651e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>8.93772096388577e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>5.313685431316139e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003146266205767538</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004477538101933552</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000103092226037</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004668156168714507</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P17" t="n">
-        <v>79.63472765768418</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q17" t="n">
-        <v>114.982126578862</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_8</t>
+          <t>model_10_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999800146226521</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991550612081552</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999989585366637</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999261900205724</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999961906021878</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G18" t="n">
-        <v>1.865547249762648e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007887132736606149</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I18" t="n">
-        <v>1.416155897413529e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>7.881020275870647e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>4.648588086642089e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003065382550042462</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004319198131323276</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00009592981127</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004503075337746426</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P18" t="n">
-        <v>79.77874204681787</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.1261409679957</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_7</t>
+          <t>model_10_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999813409886277</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991522569101611</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999915781937486</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999362590087501</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999674214533029</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G19" t="n">
-        <v>1.741736808016328e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007913309627437218</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I19" t="n">
-        <v>1.14517623175957e-05</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>6.805909557770507e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>3.975542894765038e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002976343513135618</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004173412042940797</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000089563254587</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004351082833762699</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P19" t="n">
-        <v>79.91608536810624</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q19" t="n">
-        <v>115.2634842892841</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_6</t>
+          <t>model_10_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999824103874385</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991487755989543</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999993490679291</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999463493135736</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999729014483166</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G20" t="n">
-        <v>1.641913123137981e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007945806139433159</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I20" t="n">
-        <v>8.851212125156493e-06</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>5.72852276642338e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>3.306821989469515e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000287846461536667</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004052052718237981</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000084430140295</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004224556991358848</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P20" t="n">
-        <v>80.0341267290254</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.3815256502032</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_5</t>
+          <t>model_10_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999831082205617</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991444593534082</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999952484229419</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999562656685562</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999782191267393</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G21" t="n">
-        <v>1.576773464225291e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007986096396992771</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I21" t="n">
-        <v>6.461076101590539e-06</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>4.669709374438444e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>2.657908492298749e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002771146070356135</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003970860692879179</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000081080541304</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00413990845338986</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P21" t="n">
-        <v>80.11508963426677</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.4624885554446</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_4</t>
+          <t>model_10_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999832922779213</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991390986024127</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999996751549558</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999657767999273</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999832176620981</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G22" t="n">
-        <v>1.559592517630987e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008036136654439264</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I22" t="n">
-        <v>4.417161978198732e-06</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>3.654163512444657e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>2.047939855132265e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002653422202260622</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003949167656140958</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000080197065978</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004117291899166916</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P22" t="n">
-        <v>80.13700176895196</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q22" t="n">
-        <v>115.4844006901298</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_3</t>
+          <t>model_10_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999827715229477</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991324609831352</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999978681171131</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999745485970525</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999876773712818</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G23" t="n">
-        <v>1.608202708563058e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008098095916815576</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I23" t="n">
-        <v>2.898881235302047e-06</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>2.717559661096495e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>1.50372389231335e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002526870874626891</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004010240277792664</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000082696689851</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00418096450876009</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P23" t="n">
-        <v>80.0756164792389</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.4230154004167</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_2</t>
+          <t>model_10_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999813247998679</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991242146967527</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999984593638883</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999822129461128</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999913598953786</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G24" t="n">
-        <v>1.743247957674913e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008175071380494737</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I24" t="n">
-        <v>2.094918600783898e-06</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>1.89920297255743e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>1.05434741631791e-05</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002548264077678233</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00417522209909235</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000089640960634</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004352969947751955</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P24" t="n">
-        <v>79.91435089882744</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.2617498200052</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_1</t>
+          <t>model_10_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999786566937009</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991139447112197</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999983357923802</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999882864488331</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999939481717013</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G25" t="n">
-        <v>1.992303956729364e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000827093718744311</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I25" t="n">
-        <v>2.262948058929501e-06</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>1.250708033857118e-05</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>7.385014198750342e-06</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002596684141202468</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004463523223563829</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000102447870236</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004653544647957787</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P25" t="n">
-        <v>79.64726745745747</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q25" t="n">
-        <v>114.9946663786353</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_0</t>
+          <t>model_10_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999743925431916</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991011676677735</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999972673894959</v>
+        <v>0.9999999999998683</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999920739856819</v>
+        <v>0.9999936897449189</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999950099373993</v>
+        <v>0.9999953287419772</v>
       </c>
       <c r="G26" t="n">
-        <v>2.390343689317926e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008390205279539575</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I26" t="n">
-        <v>3.715735682543359e-06</v>
+        <v>3.602592265416461e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>8.462958536568816e-06</v>
+        <v>4.977662471943105e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>6.089347109556088e-06</v>
+        <v>2.488831253984514e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000265390727616399</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004889114121513146</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00012291579268</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005097253831527418</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P26" t="n">
-        <v>79.28297661260717</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q26" t="n">
-        <v>114.630375533785</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
   </sheetData>
